--- a/biology/Médecine/Ce_cœur_qui_bat/Ce_cœur_qui_bat.xlsx
+++ b/biology/Médecine/Ce_cœur_qui_bat/Ce_cœur_qui_bat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ce_c%C5%93ur_qui_bat</t>
+          <t>Ce_cœur_qui_bat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ce cœur qui bat est un film documentaire réalisé par Philippe Lesage et sorti en 2011.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ce_c%C5%93ur_qui_bat</t>
+          <t>Ce_cœur_qui_bat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Que le problème soit physique ou psychologique, le cœur doit être ausculté. Et c’est à l’Hôtel-Dieu de Montréal que le réalisateur Philippe Lesage a choisi de poser sa caméra pour constater avec sobriété des grands maux de notre société : solitude, détresse psychologique, problèmes sociaux, un corps qui ne suit plus une tête qui n’en peut plus. À travers un rythme lent enchaînant les nombreuses séquences captées dans les différentes salles de l’hôpital et à l’aide d’une bande-son totalement enveloppante, Ce cœur qui bat donne un visage à la maladie et prend le pouls de la souffrance.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ce_c%C5%93ur_qui_bat</t>
+          <t>Ce_cœur_qui_bat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>14e soirée des prix Jutra, 2012, Meilleur documentaire
 Prix de la Cinémathèque québécoise pour la meilleure œuvre québécoise/canadienne (RIDM 2010)
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ce_c%C5%93ur_qui_bat</t>
+          <t>Ce_cœur_qui_bat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Titre : Ce cœur qui bat
 Réalisation et scénario : Philippe Lesage
